--- a/Doc/lin_2.xlsx
+++ b/Doc/lin_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="195">
   <si>
     <t>media_name</t>
   </si>
@@ -522,10 +522,16 @@
     <t>https://www.xuexi.cn/xxqg.html?id=da1c2d3b82d94e498529afcc1e258b4c</t>
   </si>
   <si>
+    <t>最好别爬这个网站</t>
+  </si>
+  <si>
     <t>综合新闻</t>
   </si>
   <si>
     <t>https://www.xuexi.cn/7097477a9643eacffe4cc101e4906fdb/9a3668c13f6e303932b5e0e100fc248b.html</t>
+  </si>
+  <si>
+    <t>接口</t>
   </si>
   <si>
     <t>重要新闻</t>
@@ -607,14 +613,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1072,46 +1071,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1123,124 +1125,124 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1591,16 +1593,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="Q76" sqref="Q76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1650,7 +1653,7 @@
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1667,11 +1670,11 @@
       <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1684,8 +1687,11 @@
       <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1701,7 +1707,7 @@
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1718,7 +1724,7 @@
       <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1735,7 +1741,7 @@
       <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1752,7 +1758,7 @@
       <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1769,7 +1775,7 @@
       <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1786,7 +1792,7 @@
       <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1803,7 +1809,7 @@
       <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1820,7 +1826,7 @@
       <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1837,7 +1843,7 @@
       <c r="D14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1854,7 +1860,7 @@
       <c r="D15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="8" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1871,7 +1877,7 @@
       <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1888,7 +1894,7 @@
       <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="8" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1905,7 +1911,7 @@
       <c r="D18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="8" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1922,7 +1928,7 @@
       <c r="D19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1939,7 +1945,7 @@
       <c r="D20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1956,7 +1962,7 @@
       <c r="D21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1973,7 +1979,7 @@
       <c r="D22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1990,7 +1996,7 @@
       <c r="D23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2007,7 +2013,7 @@
       <c r="D24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2024,7 +2030,7 @@
       <c r="D25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2041,7 +2047,7 @@
       <c r="D26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="8" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2058,7 +2064,7 @@
       <c r="D27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2075,7 +2081,7 @@
       <c r="D28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2092,7 +2098,7 @@
       <c r="D29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2109,7 +2115,7 @@
       <c r="D30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2126,7 +2132,7 @@
       <c r="D31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2143,7 +2149,7 @@
       <c r="D32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="8" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2160,7 +2166,7 @@
       <c r="D33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="8" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2177,7 +2183,7 @@
       <c r="D34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="8" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2194,7 +2200,7 @@
       <c r="D35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2211,7 +2217,7 @@
       <c r="D36" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="8" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2228,7 +2234,7 @@
       <c r="D37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="8" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2245,7 +2251,7 @@
       <c r="D38" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="8" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2262,7 +2268,7 @@
       <c r="D39" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="8" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2279,7 +2285,7 @@
       <c r="D40" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="8" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2296,7 +2302,7 @@
       <c r="D41" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2313,7 +2319,7 @@
       <c r="D42" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="8" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2330,7 +2336,7 @@
       <c r="D43" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="8" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2347,7 +2353,7 @@
       <c r="D44" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="8" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2364,7 +2370,7 @@
       <c r="D45" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="8" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2381,7 +2387,7 @@
       <c r="D46" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="8" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2398,7 +2404,7 @@
       <c r="D47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2415,7 +2421,7 @@
       <c r="D48" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2432,7 +2438,7 @@
       <c r="D49" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="8" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2449,7 +2455,7 @@
       <c r="D50" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="8" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2466,7 +2472,7 @@
       <c r="D51" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="8" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2483,7 +2489,7 @@
       <c r="D52" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="8" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2500,7 +2506,7 @@
       <c r="D53" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="8" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2517,7 +2523,7 @@
       <c r="D54" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="8" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2534,7 +2540,7 @@
       <c r="D55" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="8" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2551,7 +2557,7 @@
       <c r="D56" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E56" s="6" t="s">
+      <c r="E56" s="8" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2568,7 +2574,7 @@
       <c r="D57" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E57" s="6" t="s">
+      <c r="E57" s="8" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2585,7 +2591,7 @@
       <c r="D58" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="8" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2602,7 +2608,7 @@
       <c r="D59" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="8" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2619,7 +2625,7 @@
       <c r="D60" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2636,7 +2642,7 @@
       <c r="D61" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="8" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2653,7 +2659,7 @@
       <c r="D62" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="8" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2670,7 +2676,7 @@
       <c r="D63" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="8" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2687,7 +2693,7 @@
       <c r="D64" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="8" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2704,7 +2710,7 @@
       <c r="D65" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="8" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2721,7 +2727,7 @@
       <c r="D66" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="8" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2738,7 +2744,7 @@
       <c r="D67" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="8" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2755,7 +2761,7 @@
       <c r="D68" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="8" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2772,7 +2778,7 @@
       <c r="D69" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="8" t="s">
         <v>151</v>
       </c>
     </row>
@@ -2789,7 +2795,7 @@
       <c r="D70" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="8" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2806,7 +2812,7 @@
       <c r="D71" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="8" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2823,7 +2829,7 @@
       <c r="D72" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="8" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2840,7 +2846,7 @@
       <c r="D73" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="9" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2857,11 +2863,11 @@
       <c r="D74" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:17">
       <c r="A75" s="2" t="s">
         <v>165</v>
       </c>
@@ -2874,11 +2880,14 @@
       <c r="D75" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="7" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="Q75" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
       <c r="A76" s="2" t="s">
         <v>165</v>
       </c>
@@ -2889,10 +2898,13 @@
         <v>7</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E76" s="6" t="s">
         <v>169</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2906,10 +2918,10 @@
         <v>7</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2925,33 +2937,36 @@
       <c r="D78" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E78" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="E78" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
       <c r="A79" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E79" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="B80" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>7</v>
@@ -2959,118 +2974,139 @@
       <c r="D80" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="E80" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17">
       <c r="A81" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>179</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
       <c r="A82" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>181</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
       <c r="A83" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="B84" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="C84" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>187</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
       <c r="A85" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E85" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="2" t="s">
-        <v>187</v>
-      </c>
       <c r="B86" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>192</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
       <c r="A87" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>7</v>
@@ -3078,8 +3114,11 @@
       <c r="D87" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E87" s="6" t="s">
-        <v>192</v>
+      <c r="E87" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q87">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3096,6 +3135,21 @@
     <hyperlink ref="E83" r:id="rId10" display="http://www.farmer.com.cn/xbpd/xw/list.shtml"/>
     <hyperlink ref="E85" r:id="rId11" display="http://channel.chinaqw.com/cns/c/jjkj-hgcy.shtml"/>
     <hyperlink ref="E73" r:id="rId12" display="http://www.qizhiwang.org.cn/GB/422352/422364/index.html"/>
+    <hyperlink ref="E4" r:id="rId13" display="https://auto.cctv.com/enterprises/index.shtml?spm=C12198.Pcu3RZhfOz4l.Ew05Ekv5etIg.2"/>
+    <hyperlink ref="E5" r:id="rId14" display="https://auto.cctv.com/expert/index.shtml?spm=C12198.Pcu3RZhfOz4l.Ew05Ekv5etIg.4"/>
+    <hyperlink ref="E7" r:id="rId15" display="http://news.china.com.cn/node_7065221.htm"/>
+    <hyperlink ref="E8" r:id="rId16" display="http://finance.china.com.cn/news/index.shtml"/>
+    <hyperlink ref="E9" r:id="rId17" display="http://finance.china.com.cn/industry/index.shtml"/>
+    <hyperlink ref="E10" r:id="rId18" display="http://finance.china.com.cn/stock/ssgs/index.shtml"/>
+    <hyperlink ref="E86" r:id="rId19" display="http://channel.chinaqw.com/cns/c/jjkj-qstz.shtml"/>
+    <hyperlink ref="E87" r:id="rId20" display="http://www.chinaqw.com/ywtj/news1.shtml"/>
+    <hyperlink ref="E84" r:id="rId21" display="http://www.farmer.com.cn/xbpd/sj/list.shtml"/>
+    <hyperlink ref="E78" r:id="rId22" display="https://www.xuexi.cn/72ac54163d26d6677a80b8e21a776cfa/9a3668c13f6e303932b5e0e100fc248b.html"/>
+    <hyperlink ref="E79" r:id="rId23" display="http://www.cnwomen.com.cn/cnwomen/sylm//sy_sstt/list.shtml"/>
+    <hyperlink ref="E80" r:id="rId24" display="http://www.cnwomen.com.cn/cnwomen/xw//sz/list.shtml"/>
+    <hyperlink ref="E81" r:id="rId25" display="http://www.cnwomen.com.cn/cnwomen/xw//jy/list.shtml"/>
+    <hyperlink ref="E82" r:id="rId26" display="http://www.cnwomen.com.cn/cnwomen/cj/list.shtml"/>
+    <hyperlink ref="E75" r:id="rId27" display="https://www.xuexi.cn/xxqg.html?id=da1c2d3b82d94e498529afcc1e258b4c"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/lin_2.xlsx
+++ b/Doc/lin_2.xlsx
@@ -249,79 +249,79 @@
     <t>新闻首页_国内</t>
   </si>
   <si>
-    <t>http://news.youth.cn/gn/</t>
+    <t xml:space="preserve">http://news.youth.cn/gn/ </t>
   </si>
   <si>
     <t>新闻首页_时政</t>
   </si>
   <si>
-    <t>http://news.youth.cn/sz/</t>
+    <t xml:space="preserve">http://news.youth.cn/sz/ </t>
   </si>
   <si>
     <t>新闻首页_国际</t>
   </si>
   <si>
-    <t>http://news.youth.cn/gj/</t>
+    <t xml:space="preserve">http://news.youth.cn/gj/ </t>
   </si>
   <si>
     <t>新闻首页_即时新闻</t>
   </si>
   <si>
-    <t>http://news.youth.cn/jsxw/</t>
+    <t xml:space="preserve">http://news.youth.cn/jsxw/ </t>
   </si>
   <si>
     <t>财经首页_股市</t>
   </si>
   <si>
-    <t>http://finance.youth.cn/finance_stock/</t>
+    <t xml:space="preserve">http://finance.youth.cn/finance_stock/ </t>
   </si>
   <si>
     <t>财经首页_滚动新闻</t>
   </si>
   <si>
-    <t>http://finance.youth.cn/finance_gdxw/</t>
+    <t xml:space="preserve">http://finance.youth.cn/finance_gdxw/ </t>
   </si>
   <si>
     <t>财经首页_IPO调查</t>
   </si>
   <si>
-    <t>http://finance.youth.cn/finance_ipo/</t>
+    <t xml:space="preserve">http://finance.youth.cn/finance_ipo/ </t>
   </si>
   <si>
     <t>财经首页_基金观点</t>
   </si>
   <si>
-    <t>http://finance.youth.cn/finance_fund/</t>
+    <t xml:space="preserve">http://finance.youth.cn/finance_fund/ </t>
   </si>
   <si>
     <t>财经首页_理财收藏</t>
   </si>
   <si>
-    <t>http://finance.youth.cn/finance_money/</t>
+    <t xml:space="preserve">http://finance.youth.cn/finance_money/ </t>
   </si>
   <si>
     <t>财经首页_资本市场</t>
   </si>
   <si>
-    <t>http://finance.youth.cn/finance_zqjrrdjj/</t>
+    <t xml:space="preserve">http://finance.youth.cn/finance_zqjrrdjj/ </t>
   </si>
   <si>
     <t>财经首页_银行</t>
   </si>
   <si>
-    <t>http://finance.youth.cn/finance_bank/</t>
+    <t xml:space="preserve">http://finance.youth.cn/finance_bank/ </t>
   </si>
   <si>
     <t>财经首页_保险</t>
   </si>
   <si>
-    <t>http://finance.youth.cn/finance_insurance/</t>
+    <t xml:space="preserve">http://finance.youth.cn/finance_insurance/ </t>
   </si>
   <si>
     <t>财经首页_独家稿件</t>
   </si>
   <si>
-    <t>http://finance.youth.cn/finance_djgj/index.htm</t>
+    <t xml:space="preserve">http://finance.youth.cn/finance_djgj/index.htm </t>
   </si>
   <si>
     <t>中青在线</t>
@@ -330,7 +330,7 @@
     <t>头条新闻</t>
   </si>
   <si>
-    <t>http://news.cyol.com/gb/channels/K18xVN1M/index.html</t>
+    <t xml:space="preserve">http://news.cyol.com/gb/channels/K18xVN1M/index.html </t>
   </si>
   <si>
     <t>http://news.cyol.com/gb/channels/8Dgvq2rx/index.html</t>
@@ -348,19 +348,19 @@
     <t>时政社会_本网专稿</t>
   </si>
   <si>
-    <t>http://www.ce.cn/xwzx/xinwen/bwzg/index.shtml</t>
+    <t xml:space="preserve">http://www.ce.cn/xwzx/xinwen/bwzg/index.shtml </t>
   </si>
   <si>
     <t>时政社会_国内时政要闻</t>
   </si>
   <si>
-    <t>http://www.ce.cn/xwzx/gnsz/szyw/</t>
+    <t xml:space="preserve">http://www.ce.cn/xwzx/gnsz/szyw/ </t>
   </si>
   <si>
     <t>时政社会_国内时政更多新闻</t>
   </si>
   <si>
-    <t>http://www.ce.cn/xwzx/gnsz/gdxw/</t>
+    <t xml:space="preserve">http://www.ce.cn/xwzx/gnsz/gdxw/ </t>
   </si>
   <si>
     <t>时政社会_宏观经济</t>
@@ -441,49 +441,49 @@
     <t>原创</t>
   </si>
   <si>
-    <t>http://www.rmzxb.com.cn/yw_n/yc/index.shtml</t>
+    <t xml:space="preserve">http://www.rmzxb.com.cn/yw_n/yc/index.shtml </t>
   </si>
   <si>
     <t>热点</t>
   </si>
   <si>
-    <t>http://www.rmzxb.com.cn/yw_n/rd/index.shtml</t>
+    <t xml:space="preserve">http://www.rmzxb.com.cn/yw_n/rd/index.shtml </t>
   </si>
   <si>
     <t>经济_资讯</t>
   </si>
   <si>
-    <t>http://www.rmzxb.com.cn/jj/zx/index.shtml</t>
+    <t xml:space="preserve">http://www.rmzxb.com.cn/jj/zx/index.shtml </t>
   </si>
   <si>
     <t>经济_宏观</t>
   </si>
   <si>
-    <t>http://www.rmzxb.com.cn/jj/hg/index.shtml</t>
+    <t xml:space="preserve">http://www.rmzxb.com.cn/jj/hg/index.shtml </t>
   </si>
   <si>
     <t>经济_金融</t>
   </si>
   <si>
-    <t>http://www.rmzxb.com.cn/jj/jr/index.shtml</t>
+    <t xml:space="preserve">http://www.rmzxb.com.cn/jj/jr/index.shtml </t>
   </si>
   <si>
     <t>经济_行业</t>
   </si>
   <si>
-    <t>http://www.rmzxb.com.cn/jj/xy/index.shtml</t>
+    <t xml:space="preserve">http://www.rmzxb.com.cn/jj/xy/index.shtml </t>
   </si>
   <si>
     <t>经济_国企</t>
   </si>
   <si>
-    <t>http://www.rmzxb.com.cn/jj/gq/index.shtml</t>
+    <t xml:space="preserve">http://www.rmzxb.com.cn/jj/gq/index.shtml </t>
   </si>
   <si>
     <t>经济_民企</t>
   </si>
   <si>
-    <t>http://www.rmzxb.com.cn/jj/mq/index.shtml</t>
+    <t xml:space="preserve">http://www.rmzxb.com.cn/jj/mq/index.shtml </t>
   </si>
   <si>
     <t>人民日报海外版</t>
@@ -1595,8 +1595,8 @@
   <sheetPr/>
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="Q76" sqref="Q76"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2166,7 +2166,7 @@
       <c r="D33" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="5" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2183,7 +2183,7 @@
       <c r="D34" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="5" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
       <c r="D35" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="5" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       <c r="D36" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       <c r="D37" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="5" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       <c r="D38" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="5" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       <c r="D39" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="5" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       <c r="D40" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="5" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2302,7 +2302,7 @@
       <c r="D41" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="5" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2319,7 +2319,7 @@
       <c r="D42" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="5" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       <c r="D43" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="5" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2353,7 +2353,7 @@
       <c r="D44" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="5" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2370,11 +2370,11 @@
       <c r="D45" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:17">
       <c r="A46" s="2" t="s">
         <v>74</v>
       </c>
@@ -2387,11 +2387,14 @@
       <c r="D46" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="Q46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" s="2" t="s">
         <v>74</v>
       </c>
@@ -2404,8 +2407,11 @@
       <c r="D47" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="6" t="s">
         <v>105</v>
+      </c>
+      <c r="Q47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2421,7 +2427,7 @@
       <c r="D48" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="6" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2438,7 +2444,7 @@
       <c r="D49" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2455,7 +2461,7 @@
       <c r="D50" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="7" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2472,7 +2478,7 @@
       <c r="D51" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="7" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2646,7 +2652,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:17">
       <c r="A62" s="2" t="s">
         <v>134</v>
       </c>
@@ -2659,11 +2665,14 @@
       <c r="D62" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="Q62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
       <c r="A63" s="2" t="s">
         <v>134</v>
       </c>
@@ -2676,11 +2685,14 @@
       <c r="D63" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="Q63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
       <c r="A64" s="2" t="s">
         <v>134</v>
       </c>
@@ -2693,11 +2705,14 @@
       <c r="D64" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="5" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="Q64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
       <c r="A65" s="2" t="s">
         <v>134</v>
       </c>
@@ -2710,11 +2725,14 @@
       <c r="D65" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="Q65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
       <c r="A66" s="2" t="s">
         <v>134</v>
       </c>
@@ -2727,11 +2745,14 @@
       <c r="D66" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="Q66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
       <c r="A67" s="2" t="s">
         <v>134</v>
       </c>
@@ -2744,11 +2765,14 @@
       <c r="D67" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="Q67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
       <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
@@ -2761,11 +2785,14 @@
       <c r="D68" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="5" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="Q68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
       <c r="A69" s="2" t="s">
         <v>134</v>
       </c>
@@ -2778,11 +2805,14 @@
       <c r="D69" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="5" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="Q69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
       <c r="A70" s="2" t="s">
         <v>134</v>
       </c>
@@ -2795,11 +2825,14 @@
       <c r="D70" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="Q70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="2" t="s">
         <v>134</v>
       </c>
@@ -2812,11 +2845,14 @@
       <c r="D71" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="5" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="Q71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
       <c r="A72" s="2" t="s">
         <v>156</v>
       </c>
@@ -2829,11 +2865,14 @@
       <c r="D72" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="7" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="Q72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
       <c r="A73" s="2" t="s">
         <v>160</v>
       </c>
@@ -2846,11 +2885,14 @@
       <c r="D73" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="Q73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
       <c r="A74" s="2" t="s">
         <v>160</v>
       </c>
@@ -2863,8 +2905,11 @@
       <c r="D74" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="7" t="s">
         <v>164</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -3150,6 +3195,35 @@
     <hyperlink ref="E81" r:id="rId25" display="http://www.cnwomen.com.cn/cnwomen/xw//jy/list.shtml"/>
     <hyperlink ref="E82" r:id="rId26" display="http://www.cnwomen.com.cn/cnwomen/cj/list.shtml"/>
     <hyperlink ref="E75" r:id="rId27" display="https://www.xuexi.cn/xxqg.html?id=da1c2d3b82d94e498529afcc1e258b4c"/>
+    <hyperlink ref="E74" r:id="rId28" display="http://www.qizhiwang.org.cn/GB/422351/index.html"/>
+    <hyperlink ref="E72" r:id="rId29" display="http://news.haiwainet.cn/"/>
+    <hyperlink ref="E62" r:id="rId30" display="http://www.rmzxb.com.cn/yw_n/sz/index.shtml"/>
+    <hyperlink ref="E63" r:id="rId31" display="http://www.rmzxb.com.cn/yw_n/dt/index.shtml"/>
+    <hyperlink ref="E64" r:id="rId32" display="http://www.rmzxb.com.cn/yw_n/yc/index.shtml "/>
+    <hyperlink ref="E65" r:id="rId33" display="http://www.rmzxb.com.cn/yw_n/rd/index.shtml "/>
+    <hyperlink ref="E66" r:id="rId34" display="http://www.rmzxb.com.cn/jj/zx/index.shtml "/>
+    <hyperlink ref="E67" r:id="rId35" display="http://www.rmzxb.com.cn/jj/hg/index.shtml "/>
+    <hyperlink ref="E68" r:id="rId36" display="http://www.rmzxb.com.cn/jj/jr/index.shtml "/>
+    <hyperlink ref="E69" r:id="rId37" display="http://www.rmzxb.com.cn/jj/xy/index.shtml "/>
+    <hyperlink ref="E70" r:id="rId38" display="http://www.rmzxb.com.cn/jj/gq/index.shtml "/>
+    <hyperlink ref="E71" r:id="rId39" display="http://www.rmzxb.com.cn/jj/mq/index.shtml "/>
+    <hyperlink ref="E49" r:id="rId40" display="http://www.ce.cn/xwzx/xinwen/bwzg/index.shtml "/>
+    <hyperlink ref="E50" r:id="rId41" display="http://www.ce.cn/xwzx/gnsz/szyw/ "/>
+    <hyperlink ref="E51" r:id="rId42" display="http://www.ce.cn/xwzx/gnsz/gdxw/ "/>
+    <hyperlink ref="E46" r:id="rId43" display="http://news.cyol.com/gb/channels/K18xVN1M/index.html "/>
+    <hyperlink ref="E33" r:id="rId44" display="http://news.youth.cn/gn/ "/>
+    <hyperlink ref="E34" r:id="rId45" display="http://news.youth.cn/sz/ "/>
+    <hyperlink ref="E35" r:id="rId46" display="http://news.youth.cn/gj/ "/>
+    <hyperlink ref="E36" r:id="rId47" display="http://news.youth.cn/jsxw/ "/>
+    <hyperlink ref="E37" r:id="rId48" display="http://finance.youth.cn/finance_stock/ "/>
+    <hyperlink ref="E38" r:id="rId49" display="http://finance.youth.cn/finance_gdxw/ "/>
+    <hyperlink ref="E39" r:id="rId50" display="http://finance.youth.cn/finance_ipo/ "/>
+    <hyperlink ref="E40" r:id="rId51" display="http://finance.youth.cn/finance_fund/ "/>
+    <hyperlink ref="E41" r:id="rId52" display="http://finance.youth.cn/finance_money/ "/>
+    <hyperlink ref="E42" r:id="rId53" display="http://finance.youth.cn/finance_zqjrrdjj/ "/>
+    <hyperlink ref="E43" r:id="rId54" display="http://finance.youth.cn/finance_bank/ "/>
+    <hyperlink ref="E44" r:id="rId55" display="http://finance.youth.cn/finance_insurance/ "/>
+    <hyperlink ref="E45" r:id="rId56" display="http://finance.youth.cn/finance_djgj/index.htm "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/lin_2.xlsx
+++ b/Doc/lin_2.xlsx
@@ -102,49 +102,49 @@
     <t>港股</t>
   </si>
   <si>
-    <t>http://finance.china.com.cn/stock/hkstock/index.shtml</t>
+    <t xml:space="preserve">http://finance.china.com.cn/stock/hkstock/index.shtml </t>
   </si>
   <si>
     <t>科创板</t>
   </si>
   <si>
-    <t>http://finance.china.com.cn/kc/index.shtml</t>
+    <t xml:space="preserve">http://finance.china.com.cn/kc/index.shtml </t>
   </si>
   <si>
     <t>证券要闻</t>
   </si>
   <si>
-    <t>http://finance.china.com.cn/stock/zqyw/index.shtml</t>
+    <t xml:space="preserve">http://finance.china.com.cn/stock/zqyw/index.shtml </t>
   </si>
   <si>
     <t>券商动态</t>
   </si>
   <si>
-    <t>http://finance.china.com.cn/stock/qsdt/index.shtml</t>
+    <t xml:space="preserve">http://finance.china.com.cn/stock/qsdt/index.shtml </t>
   </si>
   <si>
     <t>证券原创新闻</t>
   </si>
   <si>
-    <t>http://finance.china.com.cn/stock/my.shtml</t>
+    <t xml:space="preserve">http://finance.china.com.cn/stock/my.shtml </t>
   </si>
   <si>
     <t>基金</t>
   </si>
   <si>
-    <t>http://finance.china.com.cn/money/fund/</t>
+    <t xml:space="preserve">http://finance.china.com.cn/money/fund/ </t>
   </si>
   <si>
     <t>银行</t>
   </si>
   <si>
-    <t>http://finance.china.com.cn/money/bank/</t>
+    <t xml:space="preserve">http://finance.china.com.cn/money/bank/ </t>
   </si>
   <si>
     <t>保险</t>
   </si>
   <si>
-    <t>http://finance.china.com.cn/money/insurance/</t>
+    <t xml:space="preserve">http://finance.china.com.cn/money/insurance/ </t>
   </si>
   <si>
     <t>国际在线</t>
@@ -171,13 +171,13 @@
     <t>时政要闻</t>
   </si>
   <si>
-    <t>https://china.chinadaily.com.cn/5bd5639ca3101a87ca8ff636</t>
+    <t xml:space="preserve">https://china.chinadaily.com.cn/5bd5639ca3101a87ca8ff636 </t>
   </si>
   <si>
     <t>财经滚动</t>
   </si>
   <si>
-    <t>https://caijing.chinadaily.com.cn/finance</t>
+    <t xml:space="preserve">https://caijing.chinadaily.com.cn/finance </t>
   </si>
   <si>
     <t>时政评论</t>
@@ -189,19 +189,19 @@
     <t>中国日报专稿</t>
   </si>
   <si>
-    <t>https://cn.chinadaily.com.cn/5b753f9fa310030f813cf408/5bd54dd6a3101a87ca8ff5f8/5bd54e59a3101a87ca8ff606</t>
+    <t xml:space="preserve">https://cn.chinadaily.com.cn/5b753f9fa310030f813cf408/5bd54dd6a3101a87ca8ff5f8/5bd54e59a3101a87ca8ff606 </t>
   </si>
   <si>
     <t>证券频道_财经大事</t>
   </si>
   <si>
-    <t>https://caijing.chinadaily.com.cn/stock/5f646b7fa3101e7ce97253d3</t>
+    <t xml:space="preserve">https://caijing.chinadaily.com.cn/stock/5f646b7fa3101e7ce97253d3 </t>
   </si>
   <si>
     <t>证券频道_权威发布</t>
   </si>
   <si>
-    <t>https://caijing.chinadaily.com.cn/stock/5f646b7fa3101e7ce97253d6</t>
+    <t xml:space="preserve">https://caijing.chinadaily.com.cn/stock/5f646b7fa3101e7ce97253d6 </t>
   </si>
   <si>
     <t>证券频道_公告解读</t>
@@ -213,31 +213,31 @@
     <t>证券频道_深度报道</t>
   </si>
   <si>
-    <t>https://caijing.chinadaily.com.cn/stock/5f646b7fa3101e7ce97253dc</t>
+    <t xml:space="preserve">https://caijing.chinadaily.com.cn/stock/5f646b7fa3101e7ce97253dc </t>
   </si>
   <si>
     <t>财经独家</t>
   </si>
   <si>
-    <t>https://caijing.chinadaily.com.cn/5b7620c4a310030f813cf452</t>
+    <t xml:space="preserve">https://caijing.chinadaily.com.cn/5b7620c4a310030f813cf452 </t>
   </si>
   <si>
     <t>产业频道_头条</t>
   </si>
   <si>
-    <t>https://qiye.chinadaily.com.cn/5b7627bba310030f813cf47f</t>
+    <t xml:space="preserve">https://qiye.chinadaily.com.cn/5b7627bba310030f813cf47f </t>
   </si>
   <si>
     <t>产业频道_热点新闻</t>
   </si>
   <si>
-    <t>https://qiye.chinadaily.com.cn/5b7627bba310030f813cf480</t>
+    <t xml:space="preserve">https://qiye.chinadaily.com.cn/5b7627bba310030f813cf480 </t>
   </si>
   <si>
     <t>产业频道_产业资讯</t>
   </si>
   <si>
-    <t>https://qiye.chinadaily.com.cn/5b7627bba310030f813cf481</t>
+    <t xml:space="preserve">https://qiye.chinadaily.com.cn/5b7627bba310030f813cf481 </t>
   </si>
   <si>
     <t>中国青年报</t>
@@ -1216,7 +1216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1240,9 +1240,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1595,8 +1592,8 @@
   <sheetPr/>
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1606,7 +1603,7 @@
     <col min="4" max="4" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1622,8 +1619,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="Q1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1639,8 +1639,11 @@
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1656,8 +1659,11 @@
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1672,6 +1678,9 @@
       </c>
       <c r="E4" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1792,7 +1801,7 @@
       <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1809,7 +1818,7 @@
       <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1826,7 +1835,7 @@
       <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1843,7 +1852,7 @@
       <c r="D14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1860,7 +1869,7 @@
       <c r="D15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1877,7 +1886,7 @@
       <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1894,7 +1903,7 @@
       <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1911,7 +1920,7 @@
       <c r="D18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1949,7 +1958,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
@@ -1962,11 +1971,14 @@
       <c r="D21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="Q21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -1979,11 +1991,14 @@
       <c r="D22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="5" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="Q22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
@@ -1996,11 +2011,14 @@
       <c r="D23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -2013,11 +2031,14 @@
       <c r="D24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="Q24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -2030,11 +2051,14 @@
       <c r="D25" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="Q25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
         <v>48</v>
       </c>
@@ -2047,11 +2071,14 @@
       <c r="D26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="Q26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
         <v>48</v>
       </c>
@@ -2064,11 +2091,14 @@
       <c r="D27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
         <v>48</v>
       </c>
@@ -2081,11 +2111,14 @@
       <c r="D28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
         <v>48</v>
       </c>
@@ -2098,11 +2131,14 @@
       <c r="D29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
         <v>48</v>
       </c>
@@ -2115,11 +2151,14 @@
       <c r="D30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="Q30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
         <v>48</v>
       </c>
@@ -2132,11 +2171,14 @@
       <c r="D31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="Q31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
         <v>48</v>
       </c>
@@ -2149,11 +2191,14 @@
       <c r="D32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="5" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="Q32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
         <v>74</v>
       </c>
@@ -2169,8 +2214,11 @@
       <c r="E33" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
@@ -2186,8 +2234,11 @@
       <c r="E34" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="Q34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -2203,8 +2254,11 @@
       <c r="E35" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="Q35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="2" t="s">
         <v>74</v>
       </c>
@@ -2220,8 +2274,11 @@
       <c r="E36" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="Q36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="2" t="s">
         <v>74</v>
       </c>
@@ -2237,8 +2294,11 @@
       <c r="E37" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="Q37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -2254,8 +2314,11 @@
       <c r="E38" s="5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="Q38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="2" t="s">
         <v>74</v>
       </c>
@@ -2271,8 +2334,11 @@
       <c r="E39" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="Q39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
       <c r="A40" s="2" t="s">
         <v>74</v>
       </c>
@@ -2288,8 +2354,11 @@
       <c r="E40" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="Q40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
       <c r="A41" s="2" t="s">
         <v>74</v>
       </c>
@@ -2305,8 +2374,11 @@
       <c r="E41" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="Q41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" s="2" t="s">
         <v>74</v>
       </c>
@@ -2322,8 +2394,11 @@
       <c r="E42" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="Q42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" s="2" t="s">
         <v>74</v>
       </c>
@@ -2339,8 +2414,11 @@
       <c r="E43" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="Q43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
       <c r="A44" s="2" t="s">
         <v>74</v>
       </c>
@@ -2356,8 +2434,11 @@
       <c r="E44" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="Q44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="2" t="s">
         <v>74</v>
       </c>
@@ -2372,6 +2453,9 @@
       </c>
       <c r="E45" s="5" t="s">
         <v>101</v>
+      </c>
+      <c r="Q45">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3224,6 +3308,24 @@
     <hyperlink ref="E43" r:id="rId54" display="http://finance.youth.cn/finance_bank/ "/>
     <hyperlink ref="E44" r:id="rId55" display="http://finance.youth.cn/finance_insurance/ "/>
     <hyperlink ref="E45" r:id="rId56" display="http://finance.youth.cn/finance_djgj/index.htm "/>
+    <hyperlink ref="E21" r:id="rId57" display="https://china.chinadaily.com.cn/5bd5639ca3101a87ca8ff636 "/>
+    <hyperlink ref="E22" r:id="rId58" display="https://caijing.chinadaily.com.cn/finance "/>
+    <hyperlink ref="E24" r:id="rId59" display="https://cn.chinadaily.com.cn/5b753f9fa310030f813cf408/5bd54dd6a3101a87ca8ff5f8/5bd54e59a3101a87ca8ff606 "/>
+    <hyperlink ref="E25" r:id="rId60" display="https://caijing.chinadaily.com.cn/stock/5f646b7fa3101e7ce97253d3 "/>
+    <hyperlink ref="E28" r:id="rId61" display="https://caijing.chinadaily.com.cn/stock/5f646b7fa3101e7ce97253dc "/>
+    <hyperlink ref="E29" r:id="rId62" display="https://caijing.chinadaily.com.cn/5b7620c4a310030f813cf452 "/>
+    <hyperlink ref="E30" r:id="rId63" display="https://qiye.chinadaily.com.cn/5b7627bba310030f813cf47f "/>
+    <hyperlink ref="E31" r:id="rId64" display="https://qiye.chinadaily.com.cn/5b7627bba310030f813cf480 "/>
+    <hyperlink ref="E32" r:id="rId65" display="https://qiye.chinadaily.com.cn/5b7627bba310030f813cf481 "/>
+    <hyperlink ref="E26" r:id="rId66" display="https://caijing.chinadaily.com.cn/stock/5f646b7fa3101e7ce97253d6 "/>
+    <hyperlink ref="E11" r:id="rId67" display="http://finance.china.com.cn/stock/hkstock/index.shtml "/>
+    <hyperlink ref="E12" r:id="rId68" display="http://finance.china.com.cn/kc/index.shtml "/>
+    <hyperlink ref="E13" r:id="rId69" display="http://finance.china.com.cn/stock/zqyw/index.shtml "/>
+    <hyperlink ref="E14" r:id="rId70" display="http://finance.china.com.cn/stock/qsdt/index.shtml "/>
+    <hyperlink ref="E15" r:id="rId71" display="http://finance.china.com.cn/stock/my.shtml "/>
+    <hyperlink ref="E16" r:id="rId72" display="http://finance.china.com.cn/money/fund/ "/>
+    <hyperlink ref="E17" r:id="rId73" display="http://finance.china.com.cn/money/bank/ "/>
+    <hyperlink ref="E18" r:id="rId74" display="http://finance.china.com.cn/money/insurance/ "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/lin_2.xlsx
+++ b/Doc/lin_2.xlsx
@@ -1592,8 +1592,8 @@
   <sheetPr/>
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1703,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1719,8 +1719,11 @@
       <c r="E6" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="Q6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1733,11 +1736,14 @@
       <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="Q7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1750,11 +1756,14 @@
       <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1767,11 +1776,14 @@
       <c r="D9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1784,11 +1796,14 @@
       <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="Q10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1801,11 +1816,14 @@
       <c r="D11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="Q11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1818,11 +1836,14 @@
       <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="Q12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -1835,11 +1856,14 @@
       <c r="D13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1852,11 +1876,14 @@
       <c r="D14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1869,11 +1896,14 @@
       <c r="D15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="Q15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -1886,11 +1916,14 @@
       <c r="D16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1903,11 +1936,14 @@
       <c r="D17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1920,8 +1956,11 @@
       <c r="D18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>42</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3255,76 +3294,76 @@
     <hyperlink ref="E2" r:id="rId1" display="https://local.cctv.com/index.shtml?spm=C96370.PPDB2vhvSivD.ExioSAoUyAkn.1" tooltip="https://local.cctv.com/index.shtml?spm=C96370.PPDB2vhvSivD.ExioSAoUyAkn.1"/>
     <hyperlink ref="E6" r:id="rId2" display="http://news.china.com.cn/node_7247300.htm" tooltip="http://news.china.com.cn/node_7247300.htm"/>
     <hyperlink ref="E3" r:id="rId3" display="https://news.cctv.com/?spm=C73544894212.P37022968553.0.0"/>
-    <hyperlink ref="E19" r:id="rId4" display="https://ce.cri.cn/news" tooltip="https://ce.cri.cn/news"/>
-    <hyperlink ref="E27" r:id="rId5" display="https://caijing.chinadaily.com.cn/stock/5f646b7fa3101e7ce97253d9"/>
-    <hyperlink ref="E20" r:id="rId6" display="https://gr.cri.cn/news" tooltip="https://gr.cri.cn/news"/>
-    <hyperlink ref="E23" r:id="rId7" display="https://china.chinadaily.com.cn/5bd5639ca3101a87ca8ff634"/>
-    <hyperlink ref="E47" r:id="rId8" display="http://news.cyol.com/gb/channels/8Dgvq2rx/index.html"/>
-    <hyperlink ref="E48" r:id="rId9" display="http://www.ce.cn/xwzx/xinwen/yw/"/>
-    <hyperlink ref="E83" r:id="rId10" display="http://www.farmer.com.cn/xbpd/xw/list.shtml"/>
-    <hyperlink ref="E85" r:id="rId11" display="http://channel.chinaqw.com/cns/c/jjkj-hgcy.shtml"/>
-    <hyperlink ref="E73" r:id="rId12" display="http://www.qizhiwang.org.cn/GB/422352/422364/index.html"/>
-    <hyperlink ref="E4" r:id="rId13" display="https://auto.cctv.com/enterprises/index.shtml?spm=C12198.Pcu3RZhfOz4l.Ew05Ekv5etIg.2"/>
-    <hyperlink ref="E5" r:id="rId14" display="https://auto.cctv.com/expert/index.shtml?spm=C12198.Pcu3RZhfOz4l.Ew05Ekv5etIg.4"/>
-    <hyperlink ref="E7" r:id="rId15" display="http://news.china.com.cn/node_7065221.htm"/>
-    <hyperlink ref="E8" r:id="rId16" display="http://finance.china.com.cn/news/index.shtml"/>
-    <hyperlink ref="E9" r:id="rId17" display="http://finance.china.com.cn/industry/index.shtml"/>
-    <hyperlink ref="E10" r:id="rId18" display="http://finance.china.com.cn/stock/ssgs/index.shtml"/>
-    <hyperlink ref="E86" r:id="rId19" display="http://channel.chinaqw.com/cns/c/jjkj-qstz.shtml"/>
-    <hyperlink ref="E87" r:id="rId20" display="http://www.chinaqw.com/ywtj/news1.shtml"/>
-    <hyperlink ref="E84" r:id="rId21" display="http://www.farmer.com.cn/xbpd/sj/list.shtml"/>
-    <hyperlink ref="E78" r:id="rId22" display="https://www.xuexi.cn/72ac54163d26d6677a80b8e21a776cfa/9a3668c13f6e303932b5e0e100fc248b.html"/>
-    <hyperlink ref="E79" r:id="rId23" display="http://www.cnwomen.com.cn/cnwomen/sylm//sy_sstt/list.shtml"/>
-    <hyperlink ref="E80" r:id="rId24" display="http://www.cnwomen.com.cn/cnwomen/xw//sz/list.shtml"/>
-    <hyperlink ref="E81" r:id="rId25" display="http://www.cnwomen.com.cn/cnwomen/xw//jy/list.shtml"/>
-    <hyperlink ref="E82" r:id="rId26" display="http://www.cnwomen.com.cn/cnwomen/cj/list.shtml"/>
-    <hyperlink ref="E75" r:id="rId27" display="https://www.xuexi.cn/xxqg.html?id=da1c2d3b82d94e498529afcc1e258b4c"/>
-    <hyperlink ref="E74" r:id="rId28" display="http://www.qizhiwang.org.cn/GB/422351/index.html"/>
-    <hyperlink ref="E72" r:id="rId29" display="http://news.haiwainet.cn/"/>
-    <hyperlink ref="E62" r:id="rId30" display="http://www.rmzxb.com.cn/yw_n/sz/index.shtml"/>
-    <hyperlink ref="E63" r:id="rId31" display="http://www.rmzxb.com.cn/yw_n/dt/index.shtml"/>
-    <hyperlink ref="E64" r:id="rId32" display="http://www.rmzxb.com.cn/yw_n/yc/index.shtml "/>
-    <hyperlink ref="E65" r:id="rId33" display="http://www.rmzxb.com.cn/yw_n/rd/index.shtml "/>
-    <hyperlink ref="E66" r:id="rId34" display="http://www.rmzxb.com.cn/jj/zx/index.shtml "/>
-    <hyperlink ref="E67" r:id="rId35" display="http://www.rmzxb.com.cn/jj/hg/index.shtml "/>
-    <hyperlink ref="E68" r:id="rId36" display="http://www.rmzxb.com.cn/jj/jr/index.shtml "/>
-    <hyperlink ref="E69" r:id="rId37" display="http://www.rmzxb.com.cn/jj/xy/index.shtml "/>
-    <hyperlink ref="E70" r:id="rId38" display="http://www.rmzxb.com.cn/jj/gq/index.shtml "/>
-    <hyperlink ref="E71" r:id="rId39" display="http://www.rmzxb.com.cn/jj/mq/index.shtml "/>
-    <hyperlink ref="E49" r:id="rId40" display="http://www.ce.cn/xwzx/xinwen/bwzg/index.shtml "/>
-    <hyperlink ref="E50" r:id="rId41" display="http://www.ce.cn/xwzx/gnsz/szyw/ "/>
-    <hyperlink ref="E51" r:id="rId42" display="http://www.ce.cn/xwzx/gnsz/gdxw/ "/>
-    <hyperlink ref="E46" r:id="rId43" display="http://news.cyol.com/gb/channels/K18xVN1M/index.html "/>
-    <hyperlink ref="E33" r:id="rId44" display="http://news.youth.cn/gn/ "/>
-    <hyperlink ref="E34" r:id="rId45" display="http://news.youth.cn/sz/ "/>
-    <hyperlink ref="E35" r:id="rId46" display="http://news.youth.cn/gj/ "/>
-    <hyperlink ref="E36" r:id="rId47" display="http://news.youth.cn/jsxw/ "/>
-    <hyperlink ref="E37" r:id="rId48" display="http://finance.youth.cn/finance_stock/ "/>
-    <hyperlink ref="E38" r:id="rId49" display="http://finance.youth.cn/finance_gdxw/ "/>
-    <hyperlink ref="E39" r:id="rId50" display="http://finance.youth.cn/finance_ipo/ "/>
-    <hyperlink ref="E40" r:id="rId51" display="http://finance.youth.cn/finance_fund/ "/>
-    <hyperlink ref="E41" r:id="rId52" display="http://finance.youth.cn/finance_money/ "/>
-    <hyperlink ref="E42" r:id="rId53" display="http://finance.youth.cn/finance_zqjrrdjj/ "/>
-    <hyperlink ref="E43" r:id="rId54" display="http://finance.youth.cn/finance_bank/ "/>
-    <hyperlink ref="E44" r:id="rId55" display="http://finance.youth.cn/finance_insurance/ "/>
-    <hyperlink ref="E45" r:id="rId56" display="http://finance.youth.cn/finance_djgj/index.htm "/>
-    <hyperlink ref="E21" r:id="rId57" display="https://china.chinadaily.com.cn/5bd5639ca3101a87ca8ff636 "/>
-    <hyperlink ref="E22" r:id="rId58" display="https://caijing.chinadaily.com.cn/finance "/>
-    <hyperlink ref="E24" r:id="rId59" display="https://cn.chinadaily.com.cn/5b753f9fa310030f813cf408/5bd54dd6a3101a87ca8ff5f8/5bd54e59a3101a87ca8ff606 "/>
-    <hyperlink ref="E25" r:id="rId60" display="https://caijing.chinadaily.com.cn/stock/5f646b7fa3101e7ce97253d3 "/>
-    <hyperlink ref="E28" r:id="rId61" display="https://caijing.chinadaily.com.cn/stock/5f646b7fa3101e7ce97253dc "/>
-    <hyperlink ref="E29" r:id="rId62" display="https://caijing.chinadaily.com.cn/5b7620c4a310030f813cf452 "/>
-    <hyperlink ref="E30" r:id="rId63" display="https://qiye.chinadaily.com.cn/5b7627bba310030f813cf47f "/>
-    <hyperlink ref="E31" r:id="rId64" display="https://qiye.chinadaily.com.cn/5b7627bba310030f813cf480 "/>
-    <hyperlink ref="E32" r:id="rId65" display="https://qiye.chinadaily.com.cn/5b7627bba310030f813cf481 "/>
-    <hyperlink ref="E26" r:id="rId66" display="https://caijing.chinadaily.com.cn/stock/5f646b7fa3101e7ce97253d6 "/>
-    <hyperlink ref="E11" r:id="rId67" display="http://finance.china.com.cn/stock/hkstock/index.shtml "/>
-    <hyperlink ref="E12" r:id="rId68" display="http://finance.china.com.cn/kc/index.shtml "/>
-    <hyperlink ref="E13" r:id="rId69" display="http://finance.china.com.cn/stock/zqyw/index.shtml "/>
-    <hyperlink ref="E14" r:id="rId70" display="http://finance.china.com.cn/stock/qsdt/index.shtml "/>
-    <hyperlink ref="E15" r:id="rId71" display="http://finance.china.com.cn/stock/my.shtml "/>
-    <hyperlink ref="E16" r:id="rId72" display="http://finance.china.com.cn/money/fund/ "/>
-    <hyperlink ref="E17" r:id="rId73" display="http://finance.china.com.cn/money/bank/ "/>
+    <hyperlink ref="E27" r:id="rId4" display="https://caijing.chinadaily.com.cn/stock/5f646b7fa3101e7ce97253d9"/>
+    <hyperlink ref="E20" r:id="rId5" display="https://gr.cri.cn/news" tooltip="https://gr.cri.cn/news"/>
+    <hyperlink ref="E23" r:id="rId6" display="https://china.chinadaily.com.cn/5bd5639ca3101a87ca8ff634"/>
+    <hyperlink ref="E47" r:id="rId7" display="http://news.cyol.com/gb/channels/8Dgvq2rx/index.html"/>
+    <hyperlink ref="E48" r:id="rId8" display="http://www.ce.cn/xwzx/xinwen/yw/"/>
+    <hyperlink ref="E83" r:id="rId9" display="http://www.farmer.com.cn/xbpd/xw/list.shtml"/>
+    <hyperlink ref="E85" r:id="rId10" display="http://channel.chinaqw.com/cns/c/jjkj-hgcy.shtml"/>
+    <hyperlink ref="E73" r:id="rId11" display="http://www.qizhiwang.org.cn/GB/422352/422364/index.html"/>
+    <hyperlink ref="E4" r:id="rId12" display="https://auto.cctv.com/enterprises/index.shtml?spm=C12198.Pcu3RZhfOz4l.Ew05Ekv5etIg.2"/>
+    <hyperlink ref="E5" r:id="rId13" display="https://auto.cctv.com/expert/index.shtml?spm=C12198.Pcu3RZhfOz4l.Ew05Ekv5etIg.4"/>
+    <hyperlink ref="E7" r:id="rId14" display="http://news.china.com.cn/node_7065221.htm"/>
+    <hyperlink ref="E8" r:id="rId15" display="http://finance.china.com.cn/news/index.shtml"/>
+    <hyperlink ref="E9" r:id="rId16" display="http://finance.china.com.cn/industry/index.shtml"/>
+    <hyperlink ref="E10" r:id="rId17" display="http://finance.china.com.cn/stock/ssgs/index.shtml"/>
+    <hyperlink ref="E86" r:id="rId18" display="http://channel.chinaqw.com/cns/c/jjkj-qstz.shtml"/>
+    <hyperlink ref="E87" r:id="rId19" display="http://www.chinaqw.com/ywtj/news1.shtml"/>
+    <hyperlink ref="E84" r:id="rId20" display="http://www.farmer.com.cn/xbpd/sj/list.shtml"/>
+    <hyperlink ref="E78" r:id="rId21" display="https://www.xuexi.cn/72ac54163d26d6677a80b8e21a776cfa/9a3668c13f6e303932b5e0e100fc248b.html"/>
+    <hyperlink ref="E79" r:id="rId22" display="http://www.cnwomen.com.cn/cnwomen/sylm//sy_sstt/list.shtml"/>
+    <hyperlink ref="E80" r:id="rId23" display="http://www.cnwomen.com.cn/cnwomen/xw//sz/list.shtml"/>
+    <hyperlink ref="E81" r:id="rId24" display="http://www.cnwomen.com.cn/cnwomen/xw//jy/list.shtml"/>
+    <hyperlink ref="E82" r:id="rId25" display="http://www.cnwomen.com.cn/cnwomen/cj/list.shtml"/>
+    <hyperlink ref="E75" r:id="rId26" display="https://www.xuexi.cn/xxqg.html?id=da1c2d3b82d94e498529afcc1e258b4c"/>
+    <hyperlink ref="E74" r:id="rId27" display="http://www.qizhiwang.org.cn/GB/422351/index.html"/>
+    <hyperlink ref="E72" r:id="rId28" display="http://news.haiwainet.cn/"/>
+    <hyperlink ref="E62" r:id="rId29" display="http://www.rmzxb.com.cn/yw_n/sz/index.shtml"/>
+    <hyperlink ref="E63" r:id="rId30" display="http://www.rmzxb.com.cn/yw_n/dt/index.shtml"/>
+    <hyperlink ref="E64" r:id="rId31" display="http://www.rmzxb.com.cn/yw_n/yc/index.shtml "/>
+    <hyperlink ref="E65" r:id="rId32" display="http://www.rmzxb.com.cn/yw_n/rd/index.shtml "/>
+    <hyperlink ref="E66" r:id="rId33" display="http://www.rmzxb.com.cn/jj/zx/index.shtml "/>
+    <hyperlink ref="E67" r:id="rId34" display="http://www.rmzxb.com.cn/jj/hg/index.shtml "/>
+    <hyperlink ref="E68" r:id="rId35" display="http://www.rmzxb.com.cn/jj/jr/index.shtml "/>
+    <hyperlink ref="E69" r:id="rId36" display="http://www.rmzxb.com.cn/jj/xy/index.shtml "/>
+    <hyperlink ref="E70" r:id="rId37" display="http://www.rmzxb.com.cn/jj/gq/index.shtml "/>
+    <hyperlink ref="E71" r:id="rId38" display="http://www.rmzxb.com.cn/jj/mq/index.shtml "/>
+    <hyperlink ref="E49" r:id="rId39" display="http://www.ce.cn/xwzx/xinwen/bwzg/index.shtml "/>
+    <hyperlink ref="E50" r:id="rId40" display="http://www.ce.cn/xwzx/gnsz/szyw/ "/>
+    <hyperlink ref="E51" r:id="rId41" display="http://www.ce.cn/xwzx/gnsz/gdxw/ "/>
+    <hyperlink ref="E46" r:id="rId42" display="http://news.cyol.com/gb/channels/K18xVN1M/index.html "/>
+    <hyperlink ref="E33" r:id="rId43" display="http://news.youth.cn/gn/ "/>
+    <hyperlink ref="E34" r:id="rId44" display="http://news.youth.cn/sz/ "/>
+    <hyperlink ref="E35" r:id="rId45" display="http://news.youth.cn/gj/ "/>
+    <hyperlink ref="E36" r:id="rId46" display="http://news.youth.cn/jsxw/ "/>
+    <hyperlink ref="E37" r:id="rId47" display="http://finance.youth.cn/finance_stock/ "/>
+    <hyperlink ref="E38" r:id="rId48" display="http://finance.youth.cn/finance_gdxw/ "/>
+    <hyperlink ref="E39" r:id="rId49" display="http://finance.youth.cn/finance_ipo/ "/>
+    <hyperlink ref="E40" r:id="rId50" display="http://finance.youth.cn/finance_fund/ "/>
+    <hyperlink ref="E41" r:id="rId51" display="http://finance.youth.cn/finance_money/ "/>
+    <hyperlink ref="E42" r:id="rId52" display="http://finance.youth.cn/finance_zqjrrdjj/ "/>
+    <hyperlink ref="E43" r:id="rId53" display="http://finance.youth.cn/finance_bank/ "/>
+    <hyperlink ref="E44" r:id="rId54" display="http://finance.youth.cn/finance_insurance/ "/>
+    <hyperlink ref="E45" r:id="rId55" display="http://finance.youth.cn/finance_djgj/index.htm "/>
+    <hyperlink ref="E21" r:id="rId56" display="https://china.chinadaily.com.cn/5bd5639ca3101a87ca8ff636 "/>
+    <hyperlink ref="E22" r:id="rId57" display="https://caijing.chinadaily.com.cn/finance "/>
+    <hyperlink ref="E24" r:id="rId58" display="https://cn.chinadaily.com.cn/5b753f9fa310030f813cf408/5bd54dd6a3101a87ca8ff5f8/5bd54e59a3101a87ca8ff606 "/>
+    <hyperlink ref="E25" r:id="rId59" display="https://caijing.chinadaily.com.cn/stock/5f646b7fa3101e7ce97253d3 "/>
+    <hyperlink ref="E28" r:id="rId60" display="https://caijing.chinadaily.com.cn/stock/5f646b7fa3101e7ce97253dc "/>
+    <hyperlink ref="E29" r:id="rId61" display="https://caijing.chinadaily.com.cn/5b7620c4a310030f813cf452 "/>
+    <hyperlink ref="E30" r:id="rId62" display="https://qiye.chinadaily.com.cn/5b7627bba310030f813cf47f "/>
+    <hyperlink ref="E31" r:id="rId63" display="https://qiye.chinadaily.com.cn/5b7627bba310030f813cf480 "/>
+    <hyperlink ref="E32" r:id="rId64" display="https://qiye.chinadaily.com.cn/5b7627bba310030f813cf481 "/>
+    <hyperlink ref="E26" r:id="rId65" display="https://caijing.chinadaily.com.cn/stock/5f646b7fa3101e7ce97253d6 "/>
+    <hyperlink ref="E11" r:id="rId66" display="http://finance.china.com.cn/stock/hkstock/index.shtml "/>
+    <hyperlink ref="E12" r:id="rId67" display="http://finance.china.com.cn/kc/index.shtml "/>
+    <hyperlink ref="E13" r:id="rId68" display="http://finance.china.com.cn/stock/zqyw/index.shtml "/>
+    <hyperlink ref="E14" r:id="rId69" display="http://finance.china.com.cn/stock/qsdt/index.shtml "/>
+    <hyperlink ref="E15" r:id="rId70" display="http://finance.china.com.cn/stock/my.shtml "/>
+    <hyperlink ref="E16" r:id="rId71" display="http://finance.china.com.cn/money/fund/ "/>
+    <hyperlink ref="E17" r:id="rId72" display="http://finance.china.com.cn/money/bank/ "/>
+    <hyperlink ref="E19" r:id="rId73" display="https://ce.cri.cn/news" tooltip="https://ce.cri.cn/news"/>
     <hyperlink ref="E18" r:id="rId74" display="http://finance.china.com.cn/money/insurance/ "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/lin_2.xlsx
+++ b/Doc/lin_2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="196">
   <si>
     <t>media_name</t>
   </si>
@@ -156,6 +156,9 @@
     <t>https://ce.cri.cn/news</t>
   </si>
   <si>
+    <t>没数据</t>
+  </si>
+  <si>
     <t>财智</t>
   </si>
   <si>
@@ -366,19 +369,19 @@
     <t>时政社会_宏观经济</t>
   </si>
   <si>
-    <t>http://www.ce.cn/macro/more/index.shtml</t>
+    <t xml:space="preserve">http://www.ce.cn/macro/more/index.shtml </t>
   </si>
   <si>
     <t>股市滚动新闻</t>
   </si>
   <si>
-    <t>http://finance.ce.cn/stock/gsgdbd/</t>
+    <t xml:space="preserve">http://finance.ce.cn/stock/gsgdbd/ </t>
   </si>
   <si>
     <t>焦点财讯</t>
   </si>
   <si>
-    <t>http://finance.ce.cn/sub/cj2009/</t>
+    <t xml:space="preserve">http://finance.ce.cn/sub/cj2009/ </t>
   </si>
   <si>
     <t>热点聚焦</t>
@@ -417,7 +420,7 @@
     <t>产业市场_即时新闻</t>
   </si>
   <si>
-    <t>http://www.ce.cn/cysc/newmain/yc/jsxw/</t>
+    <t xml:space="preserve">http://www.ce.cn/cysc/newmain/yc/jsxw/ </t>
   </si>
   <si>
     <t>人民政协报</t>
@@ -1236,10 +1239,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1592,8 +1595,8 @@
   <sheetPr/>
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1963,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
@@ -1978,6 +1981,9 @@
       </c>
       <c r="E19" s="6" t="s">
         <v>45</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1991,27 +1997,27 @@
         <v>7</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q21">
         <v>1</v>
@@ -2019,19 +2025,19 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -2039,19 +2045,19 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -2059,19 +2065,19 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q24">
         <v>1</v>
@@ -2079,19 +2085,19 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -2099,19 +2105,19 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q26">
         <v>1</v>
@@ -2119,19 +2125,19 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q27">
         <v>1</v>
@@ -2139,19 +2145,19 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q28">
         <v>1</v>
@@ -2159,19 +2165,19 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -2179,19 +2185,19 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q30">
         <v>1</v>
@@ -2199,19 +2205,19 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -2219,19 +2225,19 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -2239,19 +2245,19 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q33">
         <v>1</v>
@@ -2259,19 +2265,19 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -2279,19 +2285,19 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q35">
         <v>1</v>
@@ -2299,19 +2305,19 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -2319,19 +2325,19 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q37">
         <v>1</v>
@@ -2339,19 +2345,19 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q38">
         <v>1</v>
@@ -2359,19 +2365,19 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q39">
         <v>1</v>
@@ -2379,19 +2385,19 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q40">
         <v>1</v>
@@ -2399,19 +2405,19 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q41">
         <v>1</v>
@@ -2419,19 +2425,19 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q42">
         <v>1</v>
@@ -2439,19 +2445,19 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q43">
         <v>1</v>
@@ -2459,19 +2465,19 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q44">
         <v>1</v>
@@ -2479,19 +2485,19 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q45">
         <v>1</v>
@@ -2499,19 +2505,19 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q46">
         <v>1</v>
@@ -2519,10 +2525,10 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>7</v>
@@ -2531,188 +2537,218 @@
         <v>17</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:17">
       <c r="A48" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="B49" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" s="7" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="E49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
       <c r="A50" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="7" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="E50" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E51" s="7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="E51" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E52" s="8" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="E52" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E53" s="8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="E53" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="E54" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E55" s="8" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="E55" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E56" s="8" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="E56" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E57" s="8" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="E57" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>7</v>
@@ -2720,76 +2756,88 @@
       <c r="D58" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="E58" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E59" s="8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="E59" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E60" s="8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="E60" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
       <c r="A61" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E61" s="8" t="s">
         <v>133</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q62">
         <v>1</v>
@@ -2797,19 +2845,19 @@
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q63">
         <v>1</v>
@@ -2817,19 +2865,19 @@
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q64">
         <v>1</v>
@@ -2837,19 +2885,19 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q65">
         <v>1</v>
@@ -2857,19 +2905,19 @@
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -2877,19 +2925,19 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q67">
         <v>1</v>
@@ -2897,19 +2945,19 @@
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q68">
         <v>1</v>
@@ -2917,19 +2965,19 @@
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -2937,19 +2985,19 @@
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -2957,19 +3005,19 @@
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -2977,19 +3025,19 @@
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E72" s="7" t="s">
         <v>159</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="Q72">
         <v>1</v>
@@ -2997,19 +3045,19 @@
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q73">
         <v>1</v>
@@ -3017,19 +3065,19 @@
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E74" s="7" t="s">
         <v>164</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="Q74">
         <v>1</v>
@@ -3037,93 +3085,93 @@
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E75" s="7" t="s">
         <v>167</v>
       </c>
+      <c r="E75" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="Q75" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E76" s="8" t="s">
         <v>170</v>
       </c>
+      <c r="E76" s="7" t="s">
+        <v>171</v>
+      </c>
       <c r="Q76" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E77" s="8" t="s">
         <v>173</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>174</v>
+        <v>104</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -3131,19 +3179,19 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>178</v>
+        <v>137</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>179</v>
       </c>
       <c r="Q80">
         <v>1</v>
@@ -3151,19 +3199,19 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E81" s="7" t="s">
         <v>180</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>181</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -3171,19 +3219,19 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E82" s="7" t="s">
         <v>182</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>183</v>
       </c>
       <c r="Q82">
         <v>1</v>
@@ -3191,19 +3239,19 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -3211,19 +3259,19 @@
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E84" s="7" t="s">
         <v>188</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -3231,19 +3279,19 @@
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q85">
         <v>1</v>
@@ -3251,19 +3299,19 @@
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E86" s="7" t="s">
         <v>193</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="Q86">
         <v>1</v>
@@ -3271,10 +3319,10 @@
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>7</v>
@@ -3283,7 +3331,7 @@
         <v>17</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -3365,6 +3413,10 @@
     <hyperlink ref="E17" r:id="rId72" display="http://finance.china.com.cn/money/bank/ "/>
     <hyperlink ref="E19" r:id="rId73" display="https://ce.cri.cn/news" tooltip="https://ce.cri.cn/news"/>
     <hyperlink ref="E18" r:id="rId74" display="http://finance.china.com.cn/money/insurance/ "/>
+    <hyperlink ref="E52" r:id="rId75" display="http://www.ce.cn/macro/more/index.shtml "/>
+    <hyperlink ref="E61" r:id="rId76" display="http://www.ce.cn/cysc/newmain/yc/jsxw/ "/>
+    <hyperlink ref="E53" r:id="rId77" display="http://finance.ce.cn/stock/gsgdbd/ "/>
+    <hyperlink ref="E54" r:id="rId78" display="http://finance.ce.cn/sub/cj2009/ "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Doc/lin_2.xlsx
+++ b/Doc/lin_2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="194">
   <si>
     <t>media_name</t>
   </si>
@@ -156,7 +156,7 @@
     <t>https://ce.cri.cn/news</t>
   </si>
   <si>
-    <t>没数据</t>
+    <t>孙聪</t>
   </si>
   <si>
     <t>财智</t>
@@ -525,16 +525,10 @@
     <t>https://www.xuexi.cn/xxqg.html?id=da1c2d3b82d94e498529afcc1e258b4c</t>
   </si>
   <si>
-    <t>最好别爬这个网站</t>
-  </si>
-  <si>
     <t>综合新闻</t>
   </si>
   <si>
     <t>https://www.xuexi.cn/7097477a9643eacffe4cc101e4906fdb/9a3668c13f6e303932b5e0e100fc248b.html</t>
-  </si>
-  <si>
-    <t>接口</t>
   </si>
   <si>
     <t>重要新闻</t>
@@ -1595,8 +1589,8 @@
   <sheetPr/>
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="O86" sqref="O86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1986,7 +1980,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
@@ -2001,6 +1995,9 @@
       </c>
       <c r="E20" s="6" t="s">
         <v>48</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -3100,7 +3097,7 @@
         <v>168</v>
       </c>
       <c r="Q75" t="s">
-        <v>169</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -3114,16 +3111,16 @@
         <v>7</v>
       </c>
       <c r="D76" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="Q76" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
       <c r="A77" s="2" t="s">
         <v>166</v>
       </c>
@@ -3134,13 +3131,16 @@
         <v>7</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>172</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17">
       <c r="A78" s="2" t="s">
         <v>166</v>
       </c>
@@ -3154,24 +3154,27 @@
         <v>104</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="Q79">
         <v>1</v>
@@ -3179,10 +3182,10 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>7</v>
@@ -3191,7 +3194,7 @@
         <v>137</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="Q80">
         <v>1</v>
@@ -3199,19 +3202,19 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -3219,19 +3222,19 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q82">
         <v>1</v>
@@ -3239,19 +3242,19 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="E83" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>187</v>
       </c>
       <c r="Q83">
         <v>1</v>
@@ -3259,19 +3262,19 @@
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="Q84">
         <v>1</v>
@@ -3279,50 +3282,50 @@
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q85">
-        <v>1</v>
+      <c r="Q85" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q86">
-        <v>1</v>
+        <v>192</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>7</v>
@@ -3331,10 +3334,10 @@
         <v>17</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q87">
-        <v>1</v>
+        <v>193</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/lin_2.xlsx
+++ b/Doc/lin_2.xlsx
@@ -1590,7 +1590,7 @@
   <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="O86" sqref="O86"/>
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
